--- a/natmiOut/OldD0/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.98790431581592</v>
+        <v>5.084811666666667</v>
       </c>
       <c r="H2">
-        <v>2.98790431581592</v>
+        <v>15.254435</v>
       </c>
       <c r="I2">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="J2">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.4880053015694</v>
+        <v>87.481206</v>
       </c>
       <c r="N2">
-        <v>33.4880053015694</v>
+        <v>262.443618</v>
       </c>
       <c r="O2">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316028</v>
       </c>
       <c r="P2">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316029</v>
       </c>
       <c r="Q2">
-        <v>100.0589555686256</v>
+        <v>444.82545688287</v>
       </c>
       <c r="R2">
-        <v>100.0589555686256</v>
+        <v>4003.42911194583</v>
       </c>
       <c r="S2">
-        <v>0.2897585180354291</v>
+        <v>0.4541625788321141</v>
       </c>
       <c r="T2">
-        <v>0.2897585180354291</v>
+        <v>0.4541625788321142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.98790431581592</v>
+        <v>5.084811666666667</v>
       </c>
       <c r="H3">
-        <v>2.98790431581592</v>
+        <v>15.254435</v>
       </c>
       <c r="I3">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="J3">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3564440400131</v>
+        <v>10.36557633333333</v>
       </c>
       <c r="N3">
-        <v>10.3564440400131</v>
+        <v>31.096729</v>
       </c>
       <c r="O3">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="P3">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="Q3">
-        <v>30.9440638436612</v>
+        <v>52.70700347145723</v>
       </c>
       <c r="R3">
-        <v>30.9440638436612</v>
+        <v>474.363031243115</v>
       </c>
       <c r="S3">
-        <v>0.0896102305923373</v>
+        <v>0.05381335139147255</v>
       </c>
       <c r="T3">
-        <v>0.0896102305923373</v>
+        <v>0.05381335139147256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.98790431581592</v>
+        <v>5.084811666666667</v>
       </c>
       <c r="H4">
-        <v>2.98790431581592</v>
+        <v>15.254435</v>
       </c>
       <c r="I4">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="J4">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5386265513537331</v>
+        <v>0.546715</v>
       </c>
       <c r="N4">
-        <v>0.5386265513537331</v>
+        <v>1.640145</v>
       </c>
       <c r="O4">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="P4">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="Q4">
-        <v>1.609364597402864</v>
+        <v>2.779942810341667</v>
       </c>
       <c r="R4">
-        <v>1.609364597402864</v>
+        <v>25.019485293075</v>
       </c>
       <c r="S4">
-        <v>0.004660523369168166</v>
+        <v>0.002838295282374128</v>
       </c>
       <c r="T4">
-        <v>0.004660523369168166</v>
+        <v>0.002838295282374128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.66724666461404</v>
+        <v>2.689016666666667</v>
       </c>
       <c r="H5">
-        <v>2.66724666461404</v>
+        <v>8.06705</v>
       </c>
       <c r="I5">
-        <v>0.3428157954811453</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="J5">
-        <v>0.3428157954811453</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.4880053015694</v>
+        <v>87.481206</v>
       </c>
       <c r="N5">
-        <v>33.4880053015694</v>
+        <v>262.443618</v>
       </c>
       <c r="O5">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316028</v>
       </c>
       <c r="P5">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316029</v>
       </c>
       <c r="Q5">
-        <v>89.32077044518827</v>
+        <v>235.2384209541</v>
       </c>
       <c r="R5">
-        <v>89.32077044518827</v>
+        <v>2117.1457885869</v>
       </c>
       <c r="S5">
-        <v>0.2586620450603211</v>
+        <v>0.2401762000079063</v>
       </c>
       <c r="T5">
-        <v>0.2586620450603211</v>
+        <v>0.2401762000079063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.66724666461404</v>
+        <v>2.689016666666667</v>
       </c>
       <c r="H6">
-        <v>2.66724666461404</v>
+        <v>8.06705</v>
       </c>
       <c r="I6">
-        <v>0.3428157954811453</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="J6">
-        <v>0.3428157954811453</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.3564440400131</v>
+        <v>10.36557633333333</v>
       </c>
       <c r="N6">
-        <v>10.3564440400131</v>
+        <v>31.096729</v>
       </c>
       <c r="O6">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="P6">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="Q6">
-        <v>27.62319082298689</v>
+        <v>27.87320751993889</v>
       </c>
       <c r="R6">
-        <v>27.62319082298689</v>
+        <v>250.85886767945</v>
       </c>
       <c r="S6">
-        <v>0.07999338780614147</v>
+        <v>0.02845828090929482</v>
       </c>
       <c r="T6">
-        <v>0.07999338780614147</v>
+        <v>0.02845828090929482</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.66724666461404</v>
+        <v>2.689016666666667</v>
       </c>
       <c r="H7">
-        <v>2.66724666461404</v>
+        <v>8.06705</v>
       </c>
       <c r="I7">
-        <v>0.3428157954811453</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="J7">
-        <v>0.3428157954811453</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5386265513537331</v>
+        <v>0.546715</v>
       </c>
       <c r="N7">
-        <v>0.5386265513537331</v>
+        <v>1.640145</v>
       </c>
       <c r="O7">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="P7">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="Q7">
-        <v>1.436649872570807</v>
+        <v>1.470125746916667</v>
       </c>
       <c r="R7">
-        <v>1.436649872570807</v>
+        <v>13.23113172225</v>
       </c>
       <c r="S7">
-        <v>0.004160362614682679</v>
+        <v>0.001500984465021236</v>
       </c>
       <c r="T7">
-        <v>0.004160362614682679</v>
+        <v>0.001500984465021235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.12525674807197</v>
+        <v>2.180498333333333</v>
       </c>
       <c r="H8">
-        <v>2.12525674807197</v>
+        <v>6.541495</v>
       </c>
       <c r="I8">
-        <v>0.27315493252192</v>
+        <v>0.2190503091118167</v>
       </c>
       <c r="J8">
-        <v>0.27315493252192</v>
+        <v>0.2190503091118167</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.4880053015694</v>
+        <v>87.481206</v>
       </c>
       <c r="N8">
-        <v>33.4880053015694</v>
+        <v>262.443618</v>
       </c>
       <c r="O8">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316028</v>
       </c>
       <c r="P8">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316029</v>
       </c>
       <c r="Q8">
-        <v>71.17060924663028</v>
+        <v>190.75262388099</v>
       </c>
       <c r="R8">
-        <v>71.17060924663028</v>
+        <v>1716.77361492891</v>
       </c>
       <c r="S8">
-        <v>0.2061013943808194</v>
+        <v>0.1947566224915823</v>
       </c>
       <c r="T8">
-        <v>0.2061013943808194</v>
+        <v>0.1947566224915823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.12525674807197</v>
+        <v>2.180498333333333</v>
       </c>
       <c r="H9">
-        <v>2.12525674807197</v>
+        <v>6.541495</v>
       </c>
       <c r="I9">
-        <v>0.27315493252192</v>
+        <v>0.2190503091118167</v>
       </c>
       <c r="J9">
-        <v>0.27315493252192</v>
+        <v>0.2190503091118167</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.3564440400131</v>
+        <v>10.36557633333333</v>
       </c>
       <c r="N9">
-        <v>10.3564440400131</v>
+        <v>31.096729</v>
       </c>
       <c r="O9">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="P9">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="Q9">
-        <v>22.01010258206757</v>
+        <v>22.60212191887278</v>
       </c>
       <c r="R9">
-        <v>22.01010258206757</v>
+        <v>203.419097269855</v>
       </c>
       <c r="S9">
-        <v>0.06373856962372122</v>
+        <v>0.02307655242954332</v>
       </c>
       <c r="T9">
-        <v>0.06373856962372122</v>
+        <v>0.02307655242954332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.12525674807197</v>
+        <v>2.180498333333333</v>
       </c>
       <c r="H10">
-        <v>2.12525674807197</v>
+        <v>6.541495</v>
       </c>
       <c r="I10">
-        <v>0.27315493252192</v>
+        <v>0.2190503091118167</v>
       </c>
       <c r="J10">
-        <v>0.27315493252192</v>
+        <v>0.2190503091118167</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5386265513537331</v>
+        <v>0.546715</v>
       </c>
       <c r="N10">
-        <v>0.5386265513537331</v>
+        <v>1.640145</v>
       </c>
       <c r="O10">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="P10">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="Q10">
-        <v>1.144719712955255</v>
+        <v>1.192111146308333</v>
       </c>
       <c r="R10">
-        <v>1.144719712955255</v>
+        <v>10.729000316775</v>
       </c>
       <c r="S10">
-        <v>0.003314968517379383</v>
+        <v>0.001217134190691032</v>
       </c>
       <c r="T10">
-        <v>0.003314968517379383</v>
+        <v>0.001217134190691032</v>
       </c>
     </row>
   </sheetData>
